--- a/Queried.xlsx
+++ b/Queried.xlsx
@@ -8,21 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\Projects\Capstone-Project-DA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A136BCE6-634C-4A65-841A-74E5E305C52B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5804AB2E-F775-4828-84D1-CDB58E3BAC7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Avg HouseHolds" sheetId="1" r:id="rId1"/>
     <sheet name="Avg Death % By Year" sheetId="2" r:id="rId2"/>
     <sheet name="Avg Death % By Region" sheetId="3" r:id="rId3"/>
+    <sheet name="Avg Region Death By Ages" sheetId="4" r:id="rId4"/>
+    <sheet name="Avg World Death By Ages" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>Year</t>
   </si>
@@ -61,12 +63,75 @@
   </si>
   <si>
     <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Western Pacific Region</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Sub-Saharan Africa</t>
+  </si>
+  <si>
+    <t>African Region</t>
+  </si>
+  <si>
+    <t>Eastern Mediterranean Region</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Deaths 15-49</t>
+  </si>
+  <si>
+    <t>Deaths  50-69</t>
+  </si>
+  <si>
+    <t>South-East Asia Region</t>
+  </si>
+  <si>
+    <t>Avg Total Deaths</t>
+  </si>
+  <si>
+    <t>World Bank Lower Middle Income</t>
+  </si>
+  <si>
+    <t>World Bank Upper Middle Income</t>
+  </si>
+  <si>
+    <t>World Bank Low Income</t>
+  </si>
+  <si>
+    <t>World Bank High Income</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Pacific</t>
+  </si>
+  <si>
+    <t>Under 15</t>
+  </si>
+  <si>
+    <t>Over 70</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -625,7 +690,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -640,9 +705,28 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="18" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="18" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="35" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1000,21 +1084,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6.08984375" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1022,7 +1106,7 @@
       <c r="A2" s="1">
         <v>1980</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="15">
         <v>66.599999999999994</v>
       </c>
     </row>
@@ -1030,7 +1114,7 @@
       <c r="A3" s="1">
         <v>1990</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="15">
         <v>48</v>
       </c>
     </row>
@@ -1038,7 +1122,7 @@
       <c r="A4" s="1">
         <v>2000</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="15">
         <v>40.4</v>
       </c>
     </row>
@@ -1046,7 +1130,7 @@
       <c r="A5" s="1">
         <v>2010</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="15">
         <v>35.1</v>
       </c>
     </row>
@@ -1060,7 +1144,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1081,7 +1165,7 @@
       <c r="A2" s="2">
         <v>1990</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="9">
         <v>7.1294995892509396</v>
       </c>
     </row>
@@ -1089,7 +1173,7 @@
       <c r="A3" s="2">
         <v>1991</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="9">
         <v>6.9504683996217196</v>
       </c>
     </row>
@@ -1097,7 +1181,7 @@
       <c r="A4" s="2">
         <v>1992</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="9">
         <v>6.81312471039326</v>
       </c>
     </row>
@@ -1105,7 +1189,7 @@
       <c r="A5" s="2">
         <v>1993</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="9">
         <v>6.6474131478052403</v>
       </c>
     </row>
@@ -1113,7 +1197,7 @@
       <c r="A6" s="2">
         <v>1994</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="9">
         <v>6.4311219928689098</v>
       </c>
     </row>
@@ -1121,7 +1205,7 @@
       <c r="A7" s="2">
         <v>1995</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="9">
         <v>6.31570225126592</v>
       </c>
     </row>
@@ -1129,7 +1213,7 @@
       <c r="A8" s="2">
         <v>1996</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="9">
         <v>6.18112349345318</v>
       </c>
     </row>
@@ -1137,7 +1221,7 @@
       <c r="A9" s="2">
         <v>1997</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="9">
         <v>6.0105953396366996</v>
       </c>
     </row>
@@ -1145,7 +1229,7 @@
       <c r="A10" s="2">
         <v>1998</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="9">
         <v>5.8378271755393296</v>
       </c>
     </row>
@@ -1153,7 +1237,7 @@
       <c r="A11" s="2">
         <v>1999</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="9">
         <v>5.7009685632059899</v>
       </c>
     </row>
@@ -1161,7 +1245,7 @@
       <c r="A12" s="2">
         <v>2000</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="9">
         <v>5.5990527121048697</v>
       </c>
     </row>
@@ -1169,7 +1253,7 @@
       <c r="A13" s="2">
         <v>2001</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="9">
         <v>5.4924809063408198</v>
       </c>
     </row>
@@ -1177,7 +1261,7 @@
       <c r="A14" s="2">
         <v>2002</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="9">
         <v>5.38366087644944</v>
       </c>
     </row>
@@ -1185,7 +1269,7 @@
       <c r="A15" s="2">
         <v>2003</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="9">
         <v>5.2930757807453199</v>
       </c>
     </row>
@@ -1193,7 +1277,7 @@
       <c r="A16" s="2">
         <v>2004</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="9">
         <v>5.18529871288015</v>
       </c>
     </row>
@@ -1201,7 +1285,7 @@
       <c r="A17" s="2">
         <v>2005</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="9">
         <v>5.11627390602996</v>
       </c>
     </row>
@@ -1209,7 +1293,7 @@
       <c r="A18" s="2">
         <v>2006</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="9">
         <v>5.0467738338801498</v>
       </c>
     </row>
@@ -1217,7 +1301,7 @@
       <c r="A19" s="2">
         <v>2007</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="9">
         <v>4.9607697085093596</v>
       </c>
     </row>
@@ -1225,7 +1309,7 @@
       <c r="A20" s="2">
         <v>2008</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="9">
         <v>4.8624893054531801</v>
       </c>
     </row>
@@ -1233,7 +1317,7 @@
       <c r="A21" s="2">
         <v>2009</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="9">
         <v>4.7789047455580498</v>
       </c>
     </row>
@@ -1241,7 +1325,7 @@
       <c r="A22" s="2">
         <v>2010</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="9">
         <v>4.6531878734719099</v>
       </c>
     </row>
@@ -1249,7 +1333,7 @@
       <c r="A23" s="2">
         <v>2011</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="9">
         <v>4.6017972174194801</v>
       </c>
     </row>
@@ -1257,7 +1341,7 @@
       <c r="A24" s="2">
         <v>2012</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="9">
         <v>4.4994027168876398</v>
       </c>
     </row>
@@ -1265,7 +1349,7 @@
       <c r="A25" s="2">
         <v>2013</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="9">
         <v>4.3865245413595497</v>
       </c>
     </row>
@@ -1273,7 +1357,7 @@
       <c r="A26" s="2">
         <v>2014</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="9">
         <v>4.2647443813670396</v>
       </c>
     </row>
@@ -1281,7 +1365,7 @@
       <c r="A27" s="2">
         <v>2015</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="9">
         <v>4.18007721158052</v>
       </c>
     </row>
@@ -1289,7 +1373,7 @@
       <c r="A28" s="2">
         <v>2016</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="9">
         <v>4.1040501301460699</v>
       </c>
     </row>
@@ -1297,7 +1381,7 @@
       <c r="A29" s="2">
         <v>2017</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="9">
         <v>4.02533256099625</v>
       </c>
     </row>
@@ -1305,7 +1389,7 @@
       <c r="A30" s="2">
         <v>2018</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="9">
         <v>3.93435683608989</v>
       </c>
     </row>
@@ -1313,7 +1397,7 @@
       <c r="A31" s="2">
         <v>2019</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="9">
         <v>3.8354676363220999</v>
       </c>
     </row>
@@ -1327,20 +1411,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E39D5E1-6206-4BC0-A5B2-7AF894F7BCFB}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.36328125" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1348,7 +1432,7 @@
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="11">
         <v>21.9885905506667</v>
       </c>
     </row>
@@ -1356,7 +1440,7 @@
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="11">
         <v>19.583587152333301</v>
       </c>
     </row>
@@ -1364,7 +1448,7 @@
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="11">
         <v>17.912717995333299</v>
       </c>
     </row>
@@ -1372,7 +1456,7 @@
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="11">
         <v>17.202525417666699</v>
       </c>
     </row>
@@ -1380,7 +1464,7 @@
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="11">
         <v>16.885057448333299</v>
       </c>
     </row>
@@ -1388,7 +1472,7 @@
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="11">
         <v>16.8684936046667</v>
       </c>
     </row>
@@ -1396,7 +1480,7 @@
       <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="11">
         <v>16.838252477000001</v>
       </c>
     </row>
@@ -1404,7 +1488,7 @@
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="11">
         <v>16.188712917666699</v>
       </c>
     </row>
@@ -1412,7 +1496,7 @@
       <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="11">
         <v>15.899200899666701</v>
       </c>
     </row>
@@ -1420,11 +1504,377 @@
       <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="11">
         <v>15.829084713666701</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A0148A-BAE9-4613-B7D9-16FD5C53646C}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="10.6328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="39" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="8">
+        <v>327747.90000000002</v>
+      </c>
+      <c r="C2" s="8">
+        <v>105818.566666667</v>
+      </c>
+      <c r="D2" s="8">
+        <v>389851.46666666702</v>
+      </c>
+      <c r="E2" s="8">
+        <v>445499.066666667</v>
+      </c>
+      <c r="F2" s="8">
+        <v>1268917</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="8">
+        <v>112374.066666667</v>
+      </c>
+      <c r="C3" s="8">
+        <v>96352.8</v>
+      </c>
+      <c r="D3" s="8">
+        <v>354261.066666667</v>
+      </c>
+      <c r="E3" s="8">
+        <v>610000.76666666695</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1172988.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="39" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="8">
+        <v>78832.266666666706</v>
+      </c>
+      <c r="C4" s="8">
+        <v>70296.066666666695</v>
+      </c>
+      <c r="D4" s="8">
+        <v>275924.23333333299</v>
+      </c>
+      <c r="E4" s="8">
+        <v>523814.03333333298</v>
+      </c>
+      <c r="F4" s="8">
+        <v>948866.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="8">
+        <v>243120.1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>67633.833333333299</v>
+      </c>
+      <c r="D5" s="8">
+        <v>267823.73333333299</v>
+      </c>
+      <c r="E5" s="8">
+        <v>304207.40000000002</v>
+      </c>
+      <c r="F5" s="8">
+        <v>882785.066666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="8">
+        <v>53934</v>
+      </c>
+      <c r="C6" s="8">
+        <v>57285.333333333299</v>
+      </c>
+      <c r="D6" s="8">
+        <v>238297.16666666701</v>
+      </c>
+      <c r="E6" s="8">
+        <v>471974.066666667</v>
+      </c>
+      <c r="F6" s="8">
+        <v>821490.566666667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="39" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="8">
+        <v>448217.933333333</v>
+      </c>
+      <c r="C7" s="8">
+        <v>53947.566666666702</v>
+      </c>
+      <c r="D7" s="8">
+        <v>143434.433333333</v>
+      </c>
+      <c r="E7" s="8">
+        <v>169985.9</v>
+      </c>
+      <c r="F7" s="8">
+        <v>815585.83333333302</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="26" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="8">
+        <v>426773.4</v>
+      </c>
+      <c r="C8" s="8">
+        <v>49744.266666666699</v>
+      </c>
+      <c r="D8" s="8">
+        <v>133494.9</v>
+      </c>
+      <c r="E8" s="8">
+        <v>159785.66666666701</v>
+      </c>
+      <c r="F8" s="8">
+        <v>769798.23333333305</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="52" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="8">
+        <v>115003.33333333299</v>
+      </c>
+      <c r="C9" s="8">
+        <v>24991.233333333301</v>
+      </c>
+      <c r="D9" s="8">
+        <v>65056.1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>68424.733333333294</v>
+      </c>
+      <c r="F9" s="8">
+        <v>273475.40000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="8">
+        <v>116042.6</v>
+      </c>
+      <c r="C10" s="8">
+        <v>6570.1</v>
+      </c>
+      <c r="D10" s="8">
+        <v>19521.900000000001</v>
+      </c>
+      <c r="E10" s="8">
+        <v>27573.333333333299</v>
+      </c>
+      <c r="F10" s="8">
+        <v>169707.933333333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="8">
+        <v>68005.566666666695</v>
+      </c>
+      <c r="C11" s="8">
+        <v>13420.5333333333</v>
+      </c>
+      <c r="D11" s="8">
+        <v>37383.533333333296</v>
+      </c>
+      <c r="E11" s="8">
+        <v>41059.199999999997</v>
+      </c>
+      <c r="F11" s="8">
+        <v>159868.83333333299</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01594E4B-DC17-49DA-AEBE-34DB888DF6BD}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.54296875" customWidth="1"/>
+    <col min="2" max="2" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="65" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="8">
+        <v>597675.16666666698</v>
+      </c>
+      <c r="C2" s="8">
+        <v>150282.66666666701</v>
+      </c>
+      <c r="D2" s="8">
+        <v>506828.63333333301</v>
+      </c>
+      <c r="E2" s="8">
+        <v>590550.933333333</v>
+      </c>
+      <c r="F2" s="8">
+        <v>1845337.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="65" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="8">
+        <v>70015.666666666701</v>
+      </c>
+      <c r="C3" s="8">
+        <v>70418.433333333305</v>
+      </c>
+      <c r="D3" s="8">
+        <v>279559.8</v>
+      </c>
+      <c r="E3" s="8">
+        <v>533803.69999999995</v>
+      </c>
+      <c r="F3" s="8">
+        <v>953797.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="39" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="8">
+        <v>302212.26666666701</v>
+      </c>
+      <c r="C4" s="8">
+        <v>43743.5</v>
+      </c>
+      <c r="D4" s="8">
+        <v>124222.933333333</v>
+      </c>
+      <c r="E4" s="8">
+        <v>143557.9</v>
+      </c>
+      <c r="F4" s="8">
+        <v>613736.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="39" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="8">
+        <v>297</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1053.7</v>
+      </c>
+      <c r="D5" s="8">
+        <v>4908.3999999999996</v>
+      </c>
+      <c r="E5" s="8">
+        <v>9495.0666666666693</v>
+      </c>
+      <c r="F5" s="8">
+        <v>15754.166666666701</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>